--- a/Data/TESTFLIGHT2_Post_Flight_Datasheet.xlsx
+++ b/Data/TESTFLIGHT2_Post_Flight_Datasheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlightTest\Desktop\PFDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/GitHub/FlightDynamicsAssignment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462A06B-6844-3249-9490-5F5AD4F87A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="30220" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -237,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -649,7 +650,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="CABIN"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CABIN">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -768,6 +775,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -803,6 +827,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -978,28 +1019,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1011,7 +1052,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1023,13 +1064,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1048,7 +1089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1059,7 +1100,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1070,7 +1111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1081,7 +1122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1092,7 +1133,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1103,7 +1144,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1114,7 +1155,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1125,7 +1166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1136,7 +1177,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1144,12 +1185,12 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1157,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1218,7 +1259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1248,7 +1289,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1278,7 +1319,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1308,7 +1349,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1338,7 +1379,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1368,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1398,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1412,23 +1453,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -1489,7 +1530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1503,7 +1544,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1517,7 +1558,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1531,7 +1572,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1545,7 +1586,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1559,7 +1600,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1573,7 +1614,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1587,17 +1628,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -1605,7 +1646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1646,7 +1687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -1684,7 +1725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1723,7 +1764,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1762,7 +1803,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1801,7 +1842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1840,7 +1881,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1879,7 +1920,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1918,7 +1959,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -1957,17 +1998,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -1975,7 +2016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -1989,7 +2030,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -2068,7 +2109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2107,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2146,17 +2187,17 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -2167,7 +2208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -2178,7 +2219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -2198,7 +2239,7 @@
         <v>2.7314814814814816E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>

--- a/Data/TESTFLIGHT2_Post_Flight_Datasheet.xlsx
+++ b/Data/TESTFLIGHT2_Post_Flight_Datasheet.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/GitHub/FlightDynamicsAssignment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462A06B-6844-3249-9490-5F5AD4F87A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34368E-61A9-6544-9D9F-23197213214F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="30220" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1022,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data/TESTFLIGHT2_Post_Flight_Datasheet.xlsx
+++ b/Data/TESTFLIGHT2_Post_Flight_Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/GitHub/FlightDynamicsAssignment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34368E-61A9-6544-9D9F-23197213214F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9304D58-0602-B744-805B-1790EF2D065E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="30220" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,7 +314,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1032,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1453,15 +1537,31 @@
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="7">
+        <v>1.539351851851852E-2</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="D34" s="2">
+        <v>5120</v>
+      </c>
+      <c r="E34" s="2">
+        <v>114</v>
+      </c>
+      <c r="F34" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>429</v>
+      </c>
+      <c r="H34" s="2">
+        <v>471</v>
+      </c>
+      <c r="I34" s="2">
+        <v>403</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
@@ -1544,99 +1644,211 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="3">
+        <v>9.4907407407407406E-3</v>
+      </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="D44" s="2">
+        <v>5010</v>
+      </c>
+      <c r="E44" s="2">
+        <v>245</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>711</v>
+      </c>
+      <c r="H44" s="2">
+        <v>786</v>
+      </c>
+      <c r="I44" s="2">
+        <v>261</v>
+      </c>
+      <c r="J44" s="2">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="7">
+        <v>1.0543981481481481E-2</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="D45" s="2">
+        <v>5020</v>
+      </c>
+      <c r="E45" s="2">
+        <v>220</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>625</v>
+      </c>
+      <c r="H45" s="2">
+        <v>660</v>
+      </c>
+      <c r="I45" s="2">
+        <v>308</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="7">
+        <v>1.1655092592592594E-2</v>
+      </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="D46" s="2">
+        <v>5020</v>
+      </c>
+      <c r="E46" s="2">
+        <v>192</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>537</v>
+      </c>
+      <c r="H46" s="2">
+        <v>590</v>
+      </c>
+      <c r="I46" s="2">
+        <v>336</v>
+      </c>
+      <c r="J46" s="2">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="7">
+        <v>1.2534722222222223E-2</v>
+      </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="D47" s="2">
+        <v>5010</v>
+      </c>
+      <c r="E47" s="2">
+        <v>164</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G47" s="2">
+        <v>446</v>
+      </c>
+      <c r="H47" s="2">
+        <v>492</v>
+      </c>
+      <c r="I47" s="2">
+        <v>352</v>
+      </c>
+      <c r="J47" s="2">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="7">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="D48" s="2">
+        <v>5010</v>
+      </c>
+      <c r="E48" s="2">
+        <v>135</v>
+      </c>
+      <c r="F48" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="G48" s="2">
+        <v>406</v>
+      </c>
+      <c r="H48" s="2">
+        <v>443</v>
+      </c>
+      <c r="I48" s="2">
+        <v>377</v>
+      </c>
+      <c r="J48" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="7">
+        <v>1.539351851851852E-2</v>
+      </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="D49" s="2">
+        <v>5120</v>
+      </c>
+      <c r="E49" s="2">
+        <v>114</v>
+      </c>
+      <c r="F49" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G49" s="2">
+        <v>429</v>
+      </c>
+      <c r="H49" s="2">
+        <v>471</v>
+      </c>
+      <c r="I49" s="2">
+        <v>403</v>
+      </c>
+      <c r="J49" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="7">
+        <v>1.539351851851852E-2</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="D50" s="2">
+        <v>5120</v>
+      </c>
+      <c r="E50" s="2">
+        <v>114</v>
+      </c>
+      <c r="F50" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>429</v>
+      </c>
+      <c r="H50" s="2">
+        <v>471</v>
+      </c>
+      <c r="I50" s="2">
+        <v>403</v>
+      </c>
+      <c r="J50" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
@@ -2272,78 +2484,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16 J59:M65 C59:F65 G84 J83">
-    <cfRule type="containsBlanks" dxfId="14" priority="25">
+    <cfRule type="containsBlanks" dxfId="18" priority="29">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="13" priority="18">
-      <formula>LEN(TRIM(B34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="12" priority="20">
+    <cfRule type="containsBlanks" dxfId="16" priority="24">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="11" priority="19">
+    <cfRule type="containsBlanks" dxfId="15" priority="23">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:I65">
-    <cfRule type="containsBlanks" dxfId="10" priority="16">
+    <cfRule type="containsBlanks" dxfId="14" priority="20">
       <formula>LEN(TRIM(G59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="9" priority="15">
+    <cfRule type="containsBlanks" dxfId="13" priority="19">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="8" priority="14">
+    <cfRule type="containsBlanks" dxfId="12" priority="18">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="7" priority="13">
+    <cfRule type="containsBlanks" dxfId="11" priority="17">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="6" priority="12">
+    <cfRule type="containsBlanks" dxfId="10" priority="16">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="9" priority="11">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="12">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="10">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsBlanks" dxfId="2" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(J84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(G83))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:J49">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(B44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:J50">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B50))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:J34">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G83))=0</formula>
+      <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/TESTFLIGHT2_Post_Flight_Datasheet.xlsx
+++ b/Data/TESTFLIGHT2_Post_Flight_Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/GitHub/FlightDynamicsAssignment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9304D58-0602-B744-805B-1790EF2D065E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25218F40-D756-CA46-AFE0-1CB064167976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="30220" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:J34"/>
     </sheetView>
   </sheetViews>
@@ -1537,31 +1537,15 @@
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="7">
-        <v>1.539351851851852E-2</v>
-      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <v>5120</v>
-      </c>
-      <c r="E34" s="2">
-        <v>114</v>
-      </c>
-      <c r="F34" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="G34" s="2">
-        <v>429</v>
-      </c>
-      <c r="H34" s="2">
-        <v>471</v>
-      </c>
-      <c r="I34" s="2">
-        <v>403</v>
-      </c>
-      <c r="J34" s="2">
-        <v>3</v>
-      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
@@ -1824,31 +1808,15 @@
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" s="7">
-        <v>1.539351851851852E-2</v>
-      </c>
+      <c r="B50" s="7"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2">
-        <v>5120</v>
-      </c>
-      <c r="E50" s="2">
-        <v>114</v>
-      </c>
-      <c r="F50" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="G50" s="2">
-        <v>429</v>
-      </c>
-      <c r="H50" s="2">
-        <v>471</v>
-      </c>
-      <c r="I50" s="2">
-        <v>403</v>
-      </c>
-      <c r="J50" s="2">
-        <v>3</v>
-      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
